--- a/dtpu_configurations/only_integer8/100mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer8/100mhz/graph.xlsx
@@ -3,21 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4AFBD-F5D6-4C0E-9897-AA119CA0A4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167EF53B-6E2E-4D6B-ABAD-C29B4C7B59D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilization" sheetId="1" r:id="rId1"/>
     <sheet name="tminig" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>3x3</t>
   </si>
@@ -82,9 +92,6 @@
     <t>PS7</t>
   </si>
   <si>
-    <t>PL Static</t>
-  </si>
-  <si>
     <t>Total Power</t>
   </si>
   <si>
@@ -105,12 +112,25 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL static</t>
+  </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,14 +156,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -232,7 +256,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -285,46 +321,46 @@
             <c:numRef>
               <c:f>utilization!$B$2:$B$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>16.53</c:v>
+                  <c:v>0.1653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.48</c:v>
+                  <c:v>0.17480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.170000000000002</c:v>
+                  <c:v>0.1817</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.77</c:v>
+                  <c:v>0.18770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.04</c:v>
+                  <c:v>0.19040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.02</c:v>
+                  <c:v>0.20019999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.83</c:v>
+                  <c:v>0.21829999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.95</c:v>
+                  <c:v>0.23949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.92</c:v>
+                  <c:v>0.25919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.5</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.19</c:v>
+                  <c:v>0.43190000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.08</c:v>
+                  <c:v>0.57079999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.78</c:v>
+                  <c:v>0.71779999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,7 +368,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4433-4E65-9135-69849DDBAF82}"/>
+              <c16:uniqueId val="{00000000-E783-4C12-BFD5-FE36ED980B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -360,7 +396,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -413,46 +461,46 @@
             <c:numRef>
               <c:f>utilization!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.34</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.34</c:v>
+                  <c:v>5.3400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.43</c:v>
+                  <c:v>5.4300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.53</c:v>
+                  <c:v>5.5300000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.62</c:v>
+                  <c:v>5.62E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.71</c:v>
+                  <c:v>5.7099999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.08</c:v>
+                  <c:v>6.08E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.26</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.45</c:v>
+                  <c:v>6.4500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.82</c:v>
+                  <c:v>6.8199999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,7 +508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4433-4E65-9135-69849DDBAF82}"/>
+              <c16:uniqueId val="{00000001-E783-4C12-BFD5-FE36ED980B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -488,7 +536,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -541,46 +601,46 @@
             <c:numRef>
               <c:f>utilization!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>11.12</c:v>
+                  <c:v>0.11119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.67</c:v>
+                  <c:v>0.1167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.57</c:v>
+                  <c:v>0.12570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.82</c:v>
+                  <c:v>0.13819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.23</c:v>
+                  <c:v>0.15229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.95</c:v>
+                  <c:v>0.16950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.15</c:v>
+                  <c:v>0.2215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.66</c:v>
+                  <c:v>0.27600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.799999999999997</c:v>
+                  <c:v>0.33800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.549999999999997</c:v>
+                  <c:v>0.40550000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,7 +648,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4433-4E65-9135-69849DDBAF82}"/>
+              <c16:uniqueId val="{00000002-E783-4C12-BFD5-FE36ED980B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -616,7 +676,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -669,46 +741,46 @@
             <c:numRef>
               <c:f>utilization!$E$2:$E$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>34.29</c:v>
+                  <c:v>0.34289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.43</c:v>
+                  <c:v>0.46429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.43</c:v>
+                  <c:v>0.46429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.14</c:v>
+                  <c:v>0.52139999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.14</c:v>
+                  <c:v>0.52139999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.86</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,7 +788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4433-4E65-9135-69849DDBAF82}"/>
+              <c16:uniqueId val="{00000003-E783-4C12-BFD5-FE36ED980B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -744,7 +816,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -797,46 +881,46 @@
             <c:numRef>
               <c:f>utilization!$F$2:$F$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.73</c:v>
+                  <c:v>2.3699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.45</c:v>
+                  <c:v>5.45E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.09</c:v>
+                  <c:v>9.0899999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.64</c:v>
+                  <c:v>0.13639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.09</c:v>
+                  <c:v>0.19089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.45</c:v>
+                  <c:v>0.2445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.909999999999997</c:v>
+                  <c:v>0.40910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.73</c:v>
+                  <c:v>0.82730000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +928,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4433-4E65-9135-69849DDBAF82}"/>
+              <c16:uniqueId val="{00000004-E783-4C12-BFD5-FE36ED980B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -872,7 +956,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -925,46 +1021,46 @@
             <c:numRef>
               <c:f>utilization!$G$2:$G$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +1068,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4433-4E65-9135-69849DDBAF82}"/>
+              <c16:uniqueId val="{00000005-E783-4C12-BFD5-FE36ED980B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1002,7 +1098,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1055,46 +1167,46 @@
             <c:numRef>
               <c:f>utilization!$H$2:$H$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.13</c:v>
+                  <c:v>3.1300000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.25</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1214,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4433-4E65-9135-69849DDBAF82}"/>
+              <c16:uniqueId val="{00000006-E783-4C12-BFD5-FE36ED980B8B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,12 +1226,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511121224"/>
-        <c:axId val="511122208"/>
+        <c:axId val="545252464"/>
+        <c:axId val="545260336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="511121224"/>
+        <c:axId val="545252464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1275,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511122208"/>
+        <c:crossAx val="545260336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,7 +1283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511122208"/>
+        <c:axId val="545260336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1303,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1221,7 +1334,1425 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511121224"/>
+        <c:crossAx val="545252464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3x3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4x4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.17480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.45E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5x5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0899999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6x6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5300000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12570000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7x7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.19040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.62E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8x8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.20019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2445</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10x10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12x12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.23949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.08E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14x14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16x16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>18x18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.43190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20x20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.57079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8199999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>utilization!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>22x22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>utilization!$B$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>LUT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUTRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>BUFG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>utilization!$B$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.71779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-7D3D-4E74-B5E5-078BEF7979D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="589058320"/>
+        <c:axId val="589056024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="589058320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589056024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="589056024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589058320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1308,7 +2839,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1816,7 +3347,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2799,7 +4330,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PS7</c:v>
+                  <c:v>PL static</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2871,43 +4402,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.26</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2927,7 +4458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PL Static</c:v>
+                  <c:v>PS7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2999,43 +4530,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13</c:v>
+                  <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3051,12 +4582,9 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>power!$K$1</c:f>
+              <c:f>power!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Power</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3122,49 +4650,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$K$2:$K$14</c:f>
+              <c:f>power!$L$2:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.48</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.56</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3329,6 +4818,556 @@
         <c:crossAx val="563813024"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>power!$H$22:$J$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>PL dynamic</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PL static</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PS7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>power!$H$23:$J$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0810810810810807E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7837837837837843E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85135135135135132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C77A-47E4-8500-A7B864F84C9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>power!$A$22:$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Clocks</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Signals</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BRAM</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>I/O</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>XADC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>power!$A$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.44444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22222222222222224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5555555555555559E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5555555555555559E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-355C-4B14-A292-AB1BE4145250}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3532,8 +5571,128 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3641,11 +5800,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3656,11 +5810,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3692,9 +5841,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4049,7 +6195,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4157,11 +6303,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4172,11 +6313,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4208,9 +6344,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4266,22 +6399,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4386,8 +6520,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4519,19 +6653,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4565,7 +6700,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4588,6 +6723,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4662,6 +6808,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4672,6 +6823,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4703,6 +6859,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4716,6 +6875,1536 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5062,23 +8751,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFBC012-6D51-47CF-B7E9-562A9C316DF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48794CF-5901-4E57-80A3-DA14D45F9C61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5091,6 +8780,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A6ADF5-3ACF-4496-9EAC-6302CBECFC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5144,13 +8869,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
@@ -5173,6 +8898,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Grafico 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971CB01F-8FCA-4631-8279-AA857C4BAA73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="34" name="Grafico 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D37159-1968-4BC0-8624-938195B4536B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5504,21 +9301,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -5530,345 +9332,345 @@
         <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>16.53</v>
-      </c>
-      <c r="C2">
-        <v>5.34</v>
-      </c>
-      <c r="D2">
-        <v>11.12</v>
-      </c>
-      <c r="E2">
-        <v>34.29</v>
-      </c>
-      <c r="F2">
-        <v>2.73</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>3.13</v>
+      <c r="B2" s="1">
+        <v>0.1653</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.34289999999999998</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>17.48</v>
-      </c>
-      <c r="C3">
-        <v>5.34</v>
-      </c>
-      <c r="D3">
-        <v>11.67</v>
-      </c>
-      <c r="E3">
-        <v>46.43</v>
-      </c>
-      <c r="F3">
-        <v>5.45</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>3.13</v>
+      <c r="B3" s="1">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1167</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.45E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="C4">
-        <v>5.43</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>46.43</v>
-      </c>
-      <c r="F4">
-        <v>9.09</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>3.13</v>
+      <c r="B4" s="1">
+        <v>0.1817</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>18.77</v>
-      </c>
-      <c r="C5">
-        <v>5.53</v>
-      </c>
-      <c r="D5">
-        <v>12.57</v>
-      </c>
-      <c r="E5">
-        <v>52.14</v>
-      </c>
-      <c r="F5">
-        <v>13.64</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>3.13</v>
+      <c r="B5" s="1">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>19.04</v>
-      </c>
-      <c r="C6">
-        <v>5.62</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>52.14</v>
-      </c>
-      <c r="F6">
-        <v>19.09</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>3.13</v>
+      <c r="B6" s="1">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.62E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.19089999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>20.02</v>
-      </c>
-      <c r="C7">
-        <v>5.71</v>
-      </c>
-      <c r="D7">
-        <v>13.82</v>
-      </c>
-      <c r="E7">
-        <v>57.86</v>
-      </c>
-      <c r="F7">
-        <v>25.45</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>3.13</v>
+      <c r="B7" s="1">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.2445</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>21.83</v>
-      </c>
-      <c r="C8">
-        <v>5.9</v>
-      </c>
-      <c r="D8">
-        <v>15.23</v>
-      </c>
-      <c r="E8">
-        <v>57.86</v>
-      </c>
-      <c r="F8">
-        <v>40.909999999999997</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>3.13</v>
+      <c r="B8" s="1">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>23.95</v>
-      </c>
-      <c r="C9">
-        <v>6.08</v>
-      </c>
-      <c r="D9">
-        <v>16.95</v>
-      </c>
-      <c r="E9">
-        <v>57.86</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>3.13</v>
+      <c r="B9" s="1">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.08E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>25.92</v>
-      </c>
-      <c r="C10">
-        <v>6.26</v>
-      </c>
-      <c r="D10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E10">
-        <v>57.86</v>
-      </c>
-      <c r="F10">
-        <v>82.73</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>3.13</v>
+      <c r="B10" s="1">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>31.5</v>
-      </c>
-      <c r="C11">
-        <v>6.45</v>
-      </c>
-      <c r="D11">
-        <v>22.15</v>
-      </c>
-      <c r="E11">
-        <v>57.86</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="H11">
-        <v>3.13</v>
+      <c r="B11" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.2215</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>43.19</v>
-      </c>
-      <c r="C12">
-        <v>6.6</v>
-      </c>
-      <c r="D12">
-        <v>27.66</v>
-      </c>
-      <c r="E12">
-        <v>57.86</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>3.13</v>
+      <c r="B12" s="1">
+        <v>0.43190000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>57.08</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
+      <c r="B13" s="1">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3.1300000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>71.78</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>6.25</v>
+      <c r="B14" s="1">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.5786</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5889,10 +9691,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6046,10 +9848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G22" sqref="A22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6077,13 +9879,13 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -6112,10 +9914,10 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0.13</v>
+      </c>
+      <c r="J2">
         <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
       </c>
       <c r="K2">
         <v>1.46</v>
@@ -6147,10 +9949,10 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <v>0.13</v>
+      </c>
+      <c r="J3">
         <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
       </c>
       <c r="K3">
         <v>1.47</v>
@@ -6182,10 +9984,10 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0.13</v>
+      </c>
+      <c r="J4">
         <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
       </c>
       <c r="K4">
         <v>1.48</v>
@@ -6217,10 +10019,10 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0.13</v>
+      </c>
+      <c r="J5">
         <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
       </c>
       <c r="K5">
         <v>1.48</v>
@@ -6252,10 +10054,10 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0.13</v>
+      </c>
+      <c r="J6">
         <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
       </c>
       <c r="K6">
         <v>1.49</v>
@@ -6287,10 +10089,10 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0.13</v>
+      </c>
+      <c r="J7">
         <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
       </c>
       <c r="K7">
         <v>1.48</v>
@@ -6322,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0.13</v>
+      </c>
+      <c r="J8">
         <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
       </c>
       <c r="K8">
         <v>1.49</v>
@@ -6357,10 +10159,10 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0.13</v>
+      </c>
+      <c r="J9">
         <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
       </c>
       <c r="K9">
         <v>1.5</v>
@@ -6392,10 +10194,10 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0.13</v>
+      </c>
+      <c r="J10">
         <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
       </c>
       <c r="K10">
         <v>1.5</v>
@@ -6427,10 +10229,10 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0.13</v>
+      </c>
+      <c r="J11">
         <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
       </c>
       <c r="K11">
         <v>1.5</v>
@@ -6462,10 +10264,10 @@
         <v>0</v>
       </c>
       <c r="I12">
+        <v>0.13</v>
+      </c>
+      <c r="J12">
         <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
       </c>
       <c r="K12">
         <v>1.51</v>
@@ -6497,10 +10299,10 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0.13</v>
+      </c>
+      <c r="J13">
         <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
       </c>
       <c r="K13">
         <v>1.56</v>
@@ -6532,14 +10334,185 @@
         <v>0</v>
       </c>
       <c r="I14">
+        <v>0.13</v>
+      </c>
+      <c r="J14">
         <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
       </c>
       <c r="K14">
         <v>1.56</v>
       </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f>SUM(A19:D19)</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.04</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>0.01</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+      <c r="E19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <f>1.48-1.26-0.13</f>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.13</v>
+      </c>
+      <c r="J19">
+        <v>1.26</v>
+      </c>
+      <c r="K19">
+        <v>1.48</v>
+      </c>
+      <c r="L19">
+        <f>SUM(A19:D19)</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f>0.04/0.09</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="B23" s="2">
+        <f>0.02/0.09</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="C23" s="2">
+        <f>0.01/0.09</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="D23" s="2">
+        <f>0.01/0.09</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="E23" s="2">
+        <f>0.005/0.09</f>
+        <v>5.5555555555555559E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <f>0/0.09</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <f>0.005/0.09</f>
+        <v>5.5555555555555559E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <f>0.09/1.48</f>
+        <v>6.0810810810810807E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <f>0.13/1.48</f>
+        <v>8.7837837837837843E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <f>1.26/1.48</f>
+        <v>0.85135135135135132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dtpu_configurations/only_integer8/100mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer8/100mhz/graph.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167EF53B-6E2E-4D6B-ABAD-C29B4C7B59D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F9DE06-EEA1-4CB1-B6E2-16D501DA859B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
   <si>
     <t>3x3</t>
   </si>
@@ -113,16 +113,19 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>PL static</t>
+    <t>PL dynamic</t>
   </si>
   <si>
-    <t>PL dynamic</t>
+    <t>PL Static</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,12 +142,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,10 +168,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1428,37 +1442,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2704,6 +2688,7 @@
         <c:axId val="589056024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2834,7 +2819,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3392,1274 +3377,94 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B0F3-4AB2-AE14-8C289DBAE23C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B0F3-4AB2-AE14-8C289DBAE23C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B0F3-4AB2-AE14-8C289DBAE23C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>power!$H$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>power!$B$2:$B$14</c:f>
+              <c:f>power!$H$23:$J$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$G$2:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$2:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PL static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$I$2:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$J$2:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$L$2:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-88AB-43E8-9D3F-EB00EA71694B}"/>
+              <c16:uniqueId val="{00000000-C77A-47E4-8500-A7B864F84C9B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4670,157 +3475,13 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="563807448"/>
-        <c:axId val="563813024"/>
-        <c:axId val="507872712"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="563807448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563813024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="563813024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563807448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="507872712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563813024"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -4967,6 +3628,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9554-46FB-9629-9823BE47D3E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4982,6 +3648,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9554-46FB-9629-9823BE47D3E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4997,238 +3668,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$H$22:$J$22</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>PL dynamic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PL static</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$23:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.0810810810810807E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7837837837837843E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85135135135135132</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C77A-47E4-8500-A7B864F84C9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9554-46FB-9629-9823BE47D3E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5244,6 +3688,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9554-46FB-9629-9823BE47D3E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5259,6 +3708,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9554-46FB-9629-9823BE47D3E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5274,6 +3728,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9554-46FB-9629-9823BE47D3E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5291,35 +3750,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9554-46FB-9629-9823BE47D3E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>power!$A$22:$G$22</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Signals</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Logic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>I/O</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5327,27 +3771,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.44444444444444448</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22222222222222224</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5555555555555559E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5555555555555559E-2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5651,46 +4074,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7216,7 +5599,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7239,6 +5622,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -7262,7 +5656,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7313,6 +5707,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7323,12 +5724,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7366,7 +5774,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -7710,525 +6118,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8869,42 +6758,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A412A8E6-D11D-4181-BD37-1E3908BBACEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -8933,7 +6786,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8969,7 +6822,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9302,7 +7155,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9848,15 +7701,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G22" sqref="A22:G23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -9879,629 +7735,1166 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
       </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.03</v>
-      </c>
-      <c r="C2">
-        <v>0.02</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="4">
+        <v>3.265012800693512E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.8690617755055428E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.3089788146317005E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.5626241266727448E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.9751828302978538E-6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.1401061676442623E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.12554694712162018</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.4625875949859619</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>7.5092300772666931E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="O2" s="1">
+        <f>B2/L2</f>
+        <v>0.43479994181799708</v>
+      </c>
+      <c r="P2" s="1">
+        <f>C2/L2</f>
+        <v>0.24890191887499977</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>D2/L2</f>
+        <v>0.17431598195326031</v>
+      </c>
+      <c r="R2" s="1">
+        <f>E2/L2</f>
+        <v>8.7394101114844164E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>F2/L2</f>
+        <v>7.9571177987834121E-5</v>
+      </c>
+      <c r="T2" s="1">
+        <f>G2/L2</f>
+        <v>2.8499675008269901E-2</v>
+      </c>
+      <c r="U2" s="1">
+        <f>H2/L2</f>
+        <v>2.5834873666472264E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.13</v>
-      </c>
-      <c r="J2">
-        <v>1.26</v>
-      </c>
-      <c r="K2">
-        <v>1.46</v>
+      <c r="X2" s="1">
+        <f>I2/K2</f>
+        <v>0.8628189869911943</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>J2/K2</f>
+        <v>8.5838925170717853E-2</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>L2/K2</f>
+        <v>5.1342087838087865E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.03</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0.13</v>
-      </c>
-      <c r="J3">
-        <v>1.26</v>
-      </c>
-      <c r="K3">
-        <v>1.47</v>
+      <c r="B3" s="4">
+        <v>3.4222904592752457E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.9660834223031998E-2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.3352601788938046E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.4227649495005608E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.9914383048890159E-5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2.2045078221708536E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.12667925655841827</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.4684741497039795</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="0">K3-J3-I3</f>
+        <v>7.9846546053886414E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.42860845314030593</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.24623274511790902</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.16722829538458323</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.10548690414005196</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>3.7464842910927795E-4</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.7609307241456469E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.4296606423993977E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.85936027361875122</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>8.6265908449225853E-2</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>5.4373817932022964E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.04</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.13</v>
-      </c>
-      <c r="J4">
-        <v>1.26</v>
-      </c>
-      <c r="K4">
-        <v>1.48</v>
+      <c r="B4" s="4">
+        <v>3.5180624574422836E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.1886162459850311E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.400961447507143E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.2637341395020485E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.5938031437108293E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.4746711608022451E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.12675437331199646</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.4779001474380493</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>8.9197427034378052E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39441299759536436</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.24536764330001412</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15706298870786833</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.14167831758364352</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2712606514478181E-4</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8954836213639363E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1749507449793166E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.853879302522076</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="9"/>
+        <v>8.576653404611001E-2</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="10"/>
+        <v>6.035416343181401E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.04</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.13</v>
-      </c>
-      <c r="J5">
-        <v>1.26</v>
-      </c>
-      <c r="K5">
-        <v>1.48</v>
+      <c r="B5" s="4">
+        <v>4.1446272283792496E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.8003802746534348E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.3800603337585926E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0999810881912708E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.5110529501689598E-5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3.4857499413192272E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.1272750049829483</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.4789676666259766</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>8.9744314551353455E-2</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46182616125588799</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2006121818026948</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15377690950760953</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.12256833134112803</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="5"/>
+        <v>6.140837977001237E-4</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8840899936057931E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1616969425695281E-2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.85326297225320957</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="9"/>
+        <v>8.6056651443439242E-2</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="10"/>
+        <v>6.0680376303351151E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.04</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.13</v>
-      </c>
-      <c r="J6">
-        <v>1.26</v>
-      </c>
-      <c r="K6">
-        <v>1.49</v>
+      <c r="B6" s="4">
+        <v>4.3552927672863007E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.9005440175533295E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.4094091020524502E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1.2927097268402576E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.7822941774502397E-4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4.4669522903859615E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.12732814252376556</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4855543375015259</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>9.627784788608551E-2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45236706707854718</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19740200464410301</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14638975974203761</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13426865631331644</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8898591301523566E-3</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6396470096331938E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0150015256697122E-2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84947976336838549</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="9"/>
+        <v>8.5710861803891966E-2</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="10"/>
+        <v>6.4809374827722602E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.04</v>
-      </c>
-      <c r="C7">
-        <v>0.02</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0.13</v>
-      </c>
-      <c r="J7">
-        <v>1.26</v>
-      </c>
-      <c r="K7">
-        <v>1.48</v>
+      <c r="B7" s="4">
+        <v>4.3786782771348953E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.8284041434526443E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.3887063600122929E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.6337590366601944E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.894924106542021E-5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.4676513858139515E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.12779396772384644</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.4798135757446289</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>9.0071260929107666E-2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48613489274689059</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20299528668658534</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15417862986344791</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10695707973093251</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="5"/>
+        <v>6.5447336317204835E-4</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="6"/>
+        <v>2.7396656384728137E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1538502778522248E-2</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.85277521964661918</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="9"/>
+        <v>8.6358153363704379E-2</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="10"/>
+        <v>6.0866626989676466E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.05</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.13</v>
-      </c>
-      <c r="J8">
-        <v>1.26</v>
-      </c>
-      <c r="K8">
-        <v>1.49</v>
+      <c r="B8" s="4">
+        <v>4.6609506011009216E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.9777180626988411E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.4306509867310524E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.0488909669220448E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6.2076382164377719E-5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.7784369885921478E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.1278425008058548</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4857665300369263</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>9.5975682139396667E-2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48563870526403552</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20606449661137816</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14906390398488142</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10928715936591293</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4679282064613989E-4</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8949385163594878E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0213454705837876E-2</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84935844332171839</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="9"/>
+        <v>8.6044811362574899E-2</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="10"/>
+        <v>6.4596745315706736E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.05</v>
-      </c>
-      <c r="C9">
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.02</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0.13</v>
-      </c>
-      <c r="J9">
-        <v>1.26</v>
-      </c>
-      <c r="K9">
-        <v>1.5</v>
+      <c r="B9" s="4">
+        <v>4.680449515581131E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.1512128412723541E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.4390659518539906E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.8501969054341316E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.2883841302245855E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3.1375293619930744E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.12792937457561493</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.4964064359664917</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.10652871429920197</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O14" si="11">B9/L9</f>
+        <v>0.43936036836372422</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ref="P9:P14" si="12">C9/L9</f>
+        <v>0.20193737016578914</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ref="Q9:Q14" si="13">D9/L9</f>
+        <v>0.13508714165198285</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" ref="R9:R14" si="14">E9/L9</f>
+        <v>0.17368058157893226</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" ref="S9:S14" si="15">F9/L9</f>
+        <v>2.1481383167709259E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" ref="T9:T14" si="16">G9/L9</f>
+        <v>2.9452428696180918E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" ref="U9:U14" si="17">H9/L9</f>
+        <v>1.8211053391086696E-2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" ref="X9:X14" si="18">I9/K9</f>
+        <v>0.84331924586826157</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" ref="Y9:Y14" si="19">J9/K9</f>
+        <v>8.5491061452825506E-2</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" ref="Z9:Z14" si="20">L9/K9</f>
+        <v>7.1189692678912939E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.05</v>
-      </c>
-      <c r="C10">
-        <v>0.02</v>
-      </c>
-      <c r="D10">
-        <v>0.02</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0.13</v>
-      </c>
-      <c r="J10">
-        <v>1.26</v>
-      </c>
-      <c r="K10">
-        <v>1.5</v>
+      <c r="B10" s="4">
+        <v>5.0804831087589264E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.3963520303368568E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.5606527216732502E-2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1.2164712883532047E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.3007067395374179E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.7708953712135553E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.12793813645839691</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.4974801540374756</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.10759367048740387</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="11"/>
+        <v>0.47219163411231568</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="12"/>
+        <v>0.22272239802595087</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="13"/>
+        <v>0.14505060702952391</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.11306160323767546</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="15"/>
+        <v>3.0677517781344172E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="16"/>
+        <v>2.5753330643533977E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="17"/>
+        <v>1.8030801393783717E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="18"/>
+        <v>0.84271457200233024</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="19"/>
+        <v>8.543561403031133E-2</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="20"/>
+        <v>7.1849813967358428E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.05</v>
-      </c>
-      <c r="C11">
-        <v>0.03</v>
-      </c>
-      <c r="D11">
-        <v>0.02</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0.13</v>
-      </c>
-      <c r="J11">
-        <v>1.26</v>
-      </c>
-      <c r="K11">
-        <v>1.5</v>
+      <c r="B11" s="4">
+        <v>5.4955530911684036E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.5980126112699509E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.5701103955507278E-2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.2815269641578197E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.4891058243811131E-4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.2531468421220779E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.1279926598072052</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.5041482448577881</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.11420723795890808</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="11"/>
+        <v>0.48119131408691551</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="12"/>
+        <v>0.22748230827583094</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13747906206396968</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.11221066081809236</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="15"/>
+        <v>4.806267906028951E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="16"/>
+        <v>1.9728581851640288E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6986665105101328E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="18"/>
+        <v>0.83897870532767038</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="19"/>
+        <v>8.509311515322511E-2</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="20"/>
+        <v>7.5928179519104494E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.06</v>
-      </c>
-      <c r="C12">
-        <v>0.03</v>
-      </c>
-      <c r="D12">
-        <v>0.02</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0.13</v>
-      </c>
-      <c r="J12">
-        <v>1.26</v>
-      </c>
-      <c r="K12">
-        <v>1.51</v>
+      <c r="B12" s="4">
+        <v>5.8533497154712677E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.7657588943839073E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1.6438601538538933E-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9.0927034616470337E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7.0826150476932526E-4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.5542061300948262E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.12800693511962891</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.5058932304382324</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.11593794822692871</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="11"/>
+        <v>0.50486918260916058</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.2385551009554186</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.14178792871479129</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="14"/>
+        <v>7.8427327727497997E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="15"/>
+        <v>6.1089704932764935E-3</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="16"/>
+        <v>1.3405499699310992E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6733089842071114E-2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="18"/>
+        <v>0.8380065210363109</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="19"/>
+        <v>8.5003991340327226E-2</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="20"/>
+        <v>7.6989487623361857E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.06</v>
-      </c>
-      <c r="C13">
-        <v>0.04</v>
-      </c>
-      <c r="D13">
-        <v>0.02</v>
-      </c>
-      <c r="E13">
-        <v>0.03</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.13</v>
-      </c>
-      <c r="J13">
-        <v>1.26</v>
-      </c>
-      <c r="K13">
-        <v>1.56</v>
+      <c r="B13" s="4">
+        <v>6.4291194081306458E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.2631708085536957E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.8503688275814056E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3.4126345068216324E-2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>9.9565344862639904E-4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3.8937798235565424E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.12842494249343872</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.5567686557769775</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.16639536619186401</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="11"/>
+        <v>0.3863761086181618</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="12"/>
+        <v>0.25620730349173304</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="13"/>
+        <v>0.1112031464534786</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="14"/>
+        <v>0.20509191962032502</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="15"/>
+        <v>5.9836609120373571E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="16"/>
+        <v>2.3400770782683794E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="17"/>
+        <v>1.1658979142181454E-2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="18"/>
+        <v>0.81062034645208159</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="19"/>
+        <v>8.2494558209962349E-2</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="20"/>
+        <v>0.10688509533795611</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.04</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.03</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.13</v>
-      </c>
-      <c r="J14">
-        <v>1.26</v>
-      </c>
-      <c r="K14">
-        <v>1.56</v>
+      <c r="B14" s="4">
+        <v>6.8053826689720154E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>4.4217891991138458E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.9526459276676178E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3.3764701336622238E-2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8.0498633906245232E-4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3.24042490683496E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.9400001037865877E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.2619483470916748</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.12846793234348297</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1.5619776248931885</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.1715613454580307</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="11"/>
+        <v>0.39667342610324924</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.25773808122736802</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="13"/>
+        <v>0.1138161934120117</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.19680832676194035</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="15"/>
+        <v>4.6921195267693753E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="16"/>
+        <v>1.8887849697050027E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="17"/>
+        <v>1.1307909124909333E-2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="18"/>
+        <v>0.80791704502039174</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="19"/>
+        <v>8.2246973513636537E-2</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="20"/>
+        <v>0.10983598146597168</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <f>SUM(A19:D19)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.04</v>
-      </c>
-      <c r="B19">
-        <v>0.02</v>
-      </c>
-      <c r="C19">
-        <v>0.01</v>
-      </c>
-      <c r="D19">
-        <v>0.01</v>
-      </c>
-      <c r="E19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H19">
-        <f>1.48-1.26-0.13</f>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="I19">
-        <v>0.13</v>
-      </c>
-      <c r="J19">
-        <v>1.26</v>
-      </c>
-      <c r="K19">
-        <v>1.48</v>
-      </c>
-      <c r="L19">
-        <f>SUM(A19:D19)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <f>0.04/0.09</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="B23" s="2">
-        <f>0.02/0.09</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="C23" s="2">
-        <f>0.01/0.09</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="D23" s="2">
-        <f>0.01/0.09</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="E23" s="2">
-        <f>0.005/0.09</f>
-        <v>5.5555555555555559E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <f>0/0.09</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f>0.005/0.09</f>
-        <v>5.5555555555555559E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <f>0.09/1.48</f>
-        <v>6.0810810810810807E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <f>0.13/1.48</f>
-        <v>8.7837837837837843E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <f>1.26/1.48</f>
-        <v>0.85135135135135132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -10516,6 +8909,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>